--- a/biology/Médecine/Neuropathie_à_axones_géants/Neuropathie_à_axones_géants.xlsx
+++ b/biology/Médecine/Neuropathie_à_axones_géants/Neuropathie_à_axones_géants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Neuropathie_%C3%A0_axones_g%C3%A9ants</t>
+          <t>Neuropathie_à_axones_géants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La neuropathie à axones géants est une neuropathie sévère à début précoce. Cette neuropathie est à la fois motrice et sensitive. Il existe aussi des manifestations d'une atteinte du système nerveux central comme des convulsions, des troubles cérébelleux, un syndrome pyramidal et un retard mental. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Neuropathie_%C3%A0_axones_g%C3%A9ants</t>
+          <t>Neuropathie_à_axones_géants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie est très rare avec moins de 100 cas décrits[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie est très rare avec moins de 100 cas décrits.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Neuropathie_%C3%A0_axones_g%C3%A9ants</t>
+          <t>Neuropathie_à_axones_géants</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maladie est due à une mutation du gène GAN produisant la protéine gigaxonine, avec une transmission autosomique récessive[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maladie est due à une mutation du gène GAN produisant la protéine gigaxonine, avec une transmission autosomique récessive.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Neuropathie_%C3%A0_axones_g%C3%A9ants</t>
+          <t>Neuropathie_à_axones_géants</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cheveux des personnes atteintes sont souvent très légèrement frisés ce qui peut constituer la première manifestation[3]. les déficits moteurs apparaissent lors de la première décade, suivi par des troubles cognitifs. Le décès survient vers la trentaine
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cheveux des personnes atteintes sont souvent très légèrement frisés ce qui peut constituer la première manifestation. les déficits moteurs apparaissent lors de la première décade, suivi par des troubles cognitifs. Le décès survient vers la trentaine
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Neuropathie_%C3%A0_axones_g%C3%A9ants</t>
+          <t>Neuropathie_à_axones_géants</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Piste thérapeutique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La thérapie génique par injection intrathécal du gène permettrait de réduire ou de stopper l'évolution[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La thérapie génique par injection intrathécal du gène permettrait de réduire ou de stopper l'évolution.
 </t>
         </is>
       </c>
